--- a/1/7/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/1/7/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Serie</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2468,10 +2471,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>9850.4</v>
+        <v>9848.700000000001</v>
       </c>
       <c r="C120">
-        <v>9118.200000000001</v>
+        <v>9115.6</v>
       </c>
       <c r="D120">
         <v>7.4</v>
@@ -2538,10 +2541,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8139.3</v>
+        <v>8136.7</v>
       </c>
       <c r="C125">
-        <v>7142.4</v>
+        <v>7142.6</v>
       </c>
       <c r="D125">
         <v>12.2</v>
@@ -2566,10 +2569,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8259.9</v>
+        <v>8257.200000000001</v>
       </c>
       <c r="C127">
-        <v>7192.2</v>
+        <v>7191.4</v>
       </c>
       <c r="D127">
         <v>12.9</v>
@@ -2713,6 +2716,20 @@
       </c>
       <c r="D137">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>8948.299999999999</v>
+      </c>
+      <c r="C138">
+        <v>8148.9</v>
+      </c>
+      <c r="D138">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>

--- a/1/7/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/1/7/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Serie</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2732,6 +2735,20 @@
         <v>8.9</v>
       </c>
     </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>9030.700000000001</v>
+      </c>
+      <c r="C139">
+        <v>8258.799999999999</v>
+      </c>
+      <c r="D139">
+        <v>8.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/7/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/1/7/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Serie</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2749,6 +2752,20 @@
         <v>8.5</v>
       </c>
     </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>9111.1</v>
+      </c>
+      <c r="C140">
+        <v>8345.200000000001</v>
+      </c>
+      <c r="D140">
+        <v>8.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
